--- a/com.qsp.Magneto/src/test/resources/testData.xlsx
+++ b/com.qsp.Magneto/src/test/resources/testData.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/com.qsp.Magneto/src/test/resources/testData.xlsx
+++ b/com.qsp.Magneto/src/test/resources/testData.xlsx
@@ -42,10 +42,10 @@
     <t>Peter</t>
   </si>
   <si>
-    <t>alex.peter@gmail.com</t>
-  </si>
-  <si>
     <t>Alex.peter@1122</t>
+  </si>
+  <si>
+    <t>alex.peter11@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -92,8 +92,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -378,7 +378,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,14 +402,14 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -417,7 +417,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -425,7 +425,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
